--- a/pool-specs.xlsx
+++ b/pool-specs.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">MNNAAVE2USDC20230731</t>
   </si>
   <si>
-    <t xml:space="preserve">0x037C8D42972C3c058224a2e51b5cb9B504F75B77</t>
+    <t xml:space="preserve">0x037c8d42972c3c058224a2e51b5cb9b504f75b77</t>
   </si>
   <si>
     <t xml:space="preserve">0x7dcd48966eb559dfa6db842ba312c96dce0cb0b2</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">MNNAAVE3USDC20230731</t>
   </si>
   <si>
-    <t xml:space="preserve">0xd9a3f015A4ffD645014ec0f43148685be8754737</t>
+    <t xml:space="preserve">0xd9a3f015a4ffd645014ec0f43148685be8754737</t>
   </si>
   <si>
     <t xml:space="preserve">0x19654a85a96da7b39aa605259ee1568e55ccb9ba</t>
@@ -243,8 +243,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -279,288 +283,290 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2" t="n">
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="3" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="2" t="n">
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>42161</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="2" t="n">
+      <c r="I6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="3" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>43114</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="2" t="n">
+      <c r="I7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="3" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>43114</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="2" t="n">
+      <c r="I8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="3" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>42161</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="3" t="n">
         <v>0.0005</v>
       </c>
     </row>
